--- a/SPK.xlsx
+++ b/SPK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523B6058-62F3-49D0-A225-02BD07EDDB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD4D9FD-B9E9-41A9-9784-8FD8A9DC324C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -358,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -384,7 +384,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -410,8 +409,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3255,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33BE8E2-3101-4814-AE39-E681151BE3CC}">
   <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,52 +3271,52 @@
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>0.35</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>0.35</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -3337,19 +3336,19 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>0.35</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>0.35</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -3369,19 +3368,19 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>0.3</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>0.3</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -3457,173 +3456,173 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I11" s="21" t="str">
-        <f>I2</f>
+      <c r="I11" s="20" t="str">
+        <f t="shared" ref="I11:M17" si="0">I2</f>
         <v>Nomor Peserta</v>
       </c>
-      <c r="J11" s="21" t="str">
-        <f>J2</f>
+      <c r="J11" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Alternatif</v>
       </c>
-      <c r="K11" s="22" t="str">
-        <f>K2</f>
+      <c r="K11" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>B1</v>
       </c>
-      <c r="L11" s="22" t="str">
-        <f>L2</f>
+      <c r="L11" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>B2</v>
       </c>
-      <c r="M11" s="22" t="str">
-        <f>M2</f>
+      <c r="M11" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>B3</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I12" s="1" t="str">
-        <f>I3</f>
+        <f t="shared" si="0"/>
         <v>KABCMS0001</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f>J3</f>
+        <f t="shared" si="0"/>
         <v>Didin Abidin</v>
       </c>
       <c r="K12" s="1">
-        <f>K3</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L12" s="1">
-        <f>L3</f>
+        <f t="shared" si="0"/>
         <v>28.4</v>
       </c>
       <c r="M12" s="1">
-        <f>M3</f>
+        <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="str">
-        <f>I4</f>
+        <f t="shared" si="0"/>
         <v>KABCMS0002</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f>J4</f>
+        <f t="shared" si="0"/>
         <v>Taufiq Firdaus</v>
       </c>
       <c r="K13" s="1">
-        <f>K4</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="L13" s="1">
-        <f>L4</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="M13" s="1">
-        <f>M4</f>
+        <f t="shared" si="0"/>
         <v>43.63</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I14" s="1" t="str">
-        <f>I5</f>
+        <f t="shared" si="0"/>
         <v>KABCMS0003</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f>J5</f>
+        <f t="shared" si="0"/>
         <v>Anggia Dwi Nugrahman</v>
       </c>
       <c r="K14" s="1">
-        <f>K5</f>
+        <f t="shared" si="0"/>
         <v>98.25</v>
       </c>
       <c r="L14" s="1">
-        <f>L5</f>
+        <f t="shared" si="0"/>
         <v>26.8</v>
       </c>
       <c r="M14" s="1">
-        <f>M5</f>
+        <f t="shared" si="0"/>
         <v>44.93</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I15" s="1" t="str">
-        <f>I6</f>
+        <f t="shared" si="0"/>
         <v>KABCMS0004</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f>J6</f>
+        <f t="shared" si="0"/>
         <v>Dawud</v>
       </c>
       <c r="K15" s="1">
-        <f>K6</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="L15" s="1">
-        <f>L6</f>
+        <f t="shared" si="0"/>
         <v>26.8</v>
       </c>
       <c r="M15" s="1">
-        <f>M6</f>
+        <f t="shared" si="0"/>
         <v>44.93</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I16" s="1" t="str">
-        <f>I7</f>
+        <f t="shared" si="0"/>
         <v>KABCMS0005</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f>J7</f>
+        <f t="shared" si="0"/>
         <v>Asep Herdiana</v>
       </c>
       <c r="K16" s="1">
-        <f>K7</f>
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="L16" s="1">
-        <f>L7</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="M16" s="1">
-        <f>M7</f>
+        <f t="shared" si="0"/>
         <v>46.73</v>
       </c>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="str">
-        <f>I8</f>
+        <f t="shared" si="0"/>
         <v>KABCMS0006</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f>J8</f>
+        <f t="shared" si="0"/>
         <v>Pitri Wahyuni,S.P.,</v>
       </c>
       <c r="K17" s="1">
-        <f>K8</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="L17" s="1">
-        <f>L8</f>
+        <f t="shared" si="0"/>
         <v>25.2</v>
       </c>
       <c r="M17" s="1">
-        <f>M8</f>
+        <f t="shared" si="0"/>
         <v>46.56</v>
       </c>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <f>MAX(K12:K17)</f>
         <v>100</v>
       </c>
-      <c r="L18" s="23">
-        <f t="shared" ref="L18:M18" si="0">MAX(L12:L17)</f>
+      <c r="L18" s="22">
+        <f t="shared" ref="L18:M18" si="1">MAX(L12:L17)</f>
         <v>28.4</v>
       </c>
-      <c r="M18" s="23">
-        <f t="shared" si="0"/>
+      <c r="M18" s="22">
+        <f t="shared" si="1"/>
         <v>50.4</v>
       </c>
     </row>
@@ -3633,156 +3632,156 @@
       </c>
     </row>
     <row r="21" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I21" s="21" t="str">
+      <c r="I21" s="20" t="str">
         <f>I11</f>
         <v>Nomor Peserta</v>
       </c>
-      <c r="J21" s="21" t="str">
-        <f t="shared" ref="J21:M21" si="1">J11</f>
+      <c r="J21" s="20" t="str">
+        <f t="shared" ref="J21:M21" si="2">J11</f>
         <v>Alternatif</v>
       </c>
-      <c r="K21" s="22" t="str">
-        <f t="shared" si="1"/>
+      <c r="K21" s="21" t="str">
+        <f t="shared" si="2"/>
         <v>B1</v>
       </c>
-      <c r="L21" s="22" t="str">
-        <f t="shared" si="1"/>
+      <c r="L21" s="21" t="str">
+        <f t="shared" si="2"/>
         <v>B2</v>
       </c>
-      <c r="M21" s="22" t="str">
-        <f t="shared" si="1"/>
+      <c r="M21" s="21" t="str">
+        <f t="shared" si="2"/>
         <v>B3</v>
       </c>
     </row>
     <row r="22" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="str">
-        <f t="shared" ref="I22:J27" si="2">I12</f>
+        <f t="shared" ref="I22:J27" si="3">I12</f>
         <v>KABCMS0001</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Didin Abidin</v>
       </c>
       <c r="K22" s="1">
-        <f>K12/K$18</f>
+        <f t="shared" ref="K22:M27" si="4">K12/K$18</f>
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <f>L12/L$18</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M22" s="1">
-        <f>M12/M$18</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KABCMS0002</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Taufiq Firdaus</v>
       </c>
       <c r="K23" s="1">
-        <f>K13/K$18</f>
+        <f t="shared" si="4"/>
         <v>0.93</v>
       </c>
       <c r="L23" s="1">
-        <f>L13/L$18</f>
+        <f t="shared" si="4"/>
         <v>0.9859154929577465</v>
       </c>
       <c r="M23" s="1">
-        <f>M13/M$18</f>
+        <f t="shared" si="4"/>
         <v>0.86567460317460321</v>
       </c>
     </row>
     <row r="24" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KABCMS0003</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Anggia Dwi Nugrahman</v>
       </c>
       <c r="K24" s="1">
-        <f>K14/K$18</f>
+        <f t="shared" si="4"/>
         <v>0.98250000000000004</v>
       </c>
       <c r="L24" s="1">
-        <f>L14/L$18</f>
+        <f t="shared" si="4"/>
         <v>0.94366197183098599</v>
       </c>
       <c r="M24" s="1">
-        <f>M14/M$18</f>
+        <f t="shared" si="4"/>
         <v>0.89146825396825402</v>
       </c>
     </row>
     <row r="25" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KABCMS0004</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dawud</v>
       </c>
       <c r="K25" s="1">
-        <f>K15/K$18</f>
+        <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
       <c r="L25" s="1">
-        <f>L15/L$18</f>
+        <f t="shared" si="4"/>
         <v>0.94366197183098599</v>
       </c>
       <c r="M25" s="1">
-        <f>M15/M$18</f>
+        <f t="shared" si="4"/>
         <v>0.89146825396825402</v>
       </c>
     </row>
     <row r="26" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KABCMS0005</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Asep Herdiana</v>
       </c>
       <c r="K26" s="1">
-        <f>K16/K$18</f>
+        <f t="shared" si="4"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="L26" s="1">
-        <f>L16/L$18</f>
+        <f t="shared" si="4"/>
         <v>0.91549295774647887</v>
       </c>
       <c r="M26" s="1">
-        <f>M16/M$18</f>
+        <f t="shared" si="4"/>
         <v>0.92718253968253961</v>
       </c>
     </row>
     <row r="27" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KABCMS0006</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Pitri Wahyuni,S.P.,</v>
       </c>
       <c r="K27" s="1">
-        <f>K17/K$18</f>
+        <f t="shared" si="4"/>
         <v>0.97</v>
       </c>
       <c r="L27" s="1">
-        <f>L17/L$18</f>
+        <f t="shared" si="4"/>
         <v>0.88732394366197187</v>
       </c>
       <c r="M27" s="1">
-        <f>M17/M$18</f>
+        <f t="shared" si="4"/>
         <v>0.92380952380952386</v>
       </c>
     </row>
@@ -3792,52 +3791,52 @@
       </c>
     </row>
     <row r="30" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I30" s="21" t="str">
+      <c r="I30" s="20" t="str">
         <f>I21</f>
         <v>Nomor Peserta</v>
       </c>
-      <c r="J30" s="21" t="str">
-        <f t="shared" ref="J30:M30" si="3">J21</f>
+      <c r="J30" s="20" t="str">
+        <f t="shared" ref="J30:M30" si="5">J21</f>
         <v>Alternatif</v>
       </c>
-      <c r="K30" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="K30" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>B1</v>
       </c>
-      <c r="L30" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="L30" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>B2</v>
       </c>
-      <c r="M30" s="22" t="str">
-        <f t="shared" si="3"/>
+      <c r="M30" s="21" t="str">
+        <f t="shared" si="5"/>
         <v>B3</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="22" t="s">
+      <c r="O30" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I31" s="1" t="str">
-        <f t="shared" ref="I31:J36" si="4">I22</f>
+        <f t="shared" ref="I31:J36" si="6">I22</f>
         <v>KABCMS0001</v>
       </c>
       <c r="J31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Didin Abidin</v>
       </c>
       <c r="K31" s="1">
-        <f>K22*$G$3</f>
+        <f t="shared" ref="K31:K36" si="7">K22*$G$3</f>
         <v>0.35</v>
       </c>
       <c r="L31" s="1">
-        <f>L22*$G$4</f>
+        <f t="shared" ref="L31:L36" si="8">L22*$G$4</f>
         <v>0.35</v>
       </c>
       <c r="M31" s="1">
-        <f>M22*$G$5</f>
+        <f t="shared" ref="M31:M36" si="9">M22*$G$5</f>
         <v>0.3</v>
       </c>
       <c r="N31" s="1">
@@ -3845,157 +3844,157 @@
         <v>1</v>
       </c>
       <c r="O31" s="1">
-        <f>RANK(N31,$N$31:$N$36)</f>
+        <f t="shared" ref="O31:O36" si="10">RANK(N31,$N$31:$N$36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KABCMS0002</v>
       </c>
       <c r="J32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Taufiq Firdaus</v>
       </c>
       <c r="K32" s="1">
-        <f>K23*$G$3</f>
+        <f t="shared" si="7"/>
         <v>0.32550000000000001</v>
       </c>
       <c r="L32" s="1">
-        <f>L23*$G$4</f>
+        <f t="shared" si="8"/>
         <v>0.34507042253521125</v>
       </c>
       <c r="M32" s="1">
-        <f>M23*$G$5</f>
+        <f t="shared" si="9"/>
         <v>0.25970238095238096</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" ref="N32:N37" si="5">SUM(K32:M32)</f>
+        <f t="shared" ref="N32:N36" si="11">SUM(K32:M32)</f>
         <v>0.93027280348759223</v>
       </c>
       <c r="O32" s="1">
-        <f>RANK(N32,$N$31:$N$36)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KABCMS0003</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Anggia Dwi Nugrahman</v>
       </c>
       <c r="K33" s="1">
-        <f>K24*$G$3</f>
+        <f t="shared" si="7"/>
         <v>0.34387499999999999</v>
       </c>
       <c r="L33" s="1">
-        <f>L24*$G$4</f>
+        <f t="shared" si="8"/>
         <v>0.33028169014084507</v>
       </c>
       <c r="M33" s="1">
-        <f>M24*$G$5</f>
+        <f t="shared" si="9"/>
         <v>0.26744047619047617</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.94159716633132129</v>
       </c>
       <c r="O33" s="1">
-        <f>RANK(N33,$N$31:$N$36)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I34" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KABCMS0004</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Dawud</v>
       </c>
       <c r="K34" s="1">
-        <f>K25*$G$3</f>
+        <f t="shared" si="7"/>
         <v>0.33249999999999996</v>
       </c>
       <c r="L34" s="1">
-        <f>L25*$G$4</f>
+        <f t="shared" si="8"/>
         <v>0.33028169014084507</v>
       </c>
       <c r="M34" s="1">
-        <f>M25*$G$5</f>
+        <f t="shared" si="9"/>
         <v>0.26744047619047617</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.93022216633132115</v>
       </c>
       <c r="O34" s="1">
-        <f>RANK(N34,$N$31:$N$36)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KABCMS0005</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Asep Herdiana</v>
       </c>
       <c r="K35" s="1">
-        <f>K26*$G$3</f>
+        <f t="shared" si="7"/>
         <v>0.34125</v>
       </c>
       <c r="L35" s="1">
-        <f>L26*$G$4</f>
+        <f t="shared" si="8"/>
         <v>0.32042253521126757</v>
       </c>
       <c r="M35" s="1">
-        <f>M26*$G$5</f>
+        <f t="shared" si="9"/>
         <v>0.27815476190476185</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.93982729711602941</v>
       </c>
       <c r="O35" s="1">
-        <f>RANK(N35,$N$31:$N$36)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>KABCMS0006</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>Pitri Wahyuni,S.P.,</v>
       </c>
       <c r="K36" s="1">
-        <f>K27*$G$3</f>
+        <f t="shared" si="7"/>
         <v>0.33949999999999997</v>
       </c>
       <c r="L36" s="1">
-        <f>L27*$G$4</f>
+        <f t="shared" si="8"/>
         <v>0.31056338028169012</v>
       </c>
       <c r="M36" s="1">
-        <f>M27*$G$5</f>
+        <f t="shared" si="9"/>
         <v>0.27714285714285714</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.92720623742454722</v>
       </c>
       <c r="O36" s="1">
-        <f>RANK(N36,$N$31:$N$36)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -4012,7 +4011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662B79E1-0903-48AC-930C-B1082DFA006B}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -4042,33 +4041,33 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>0.35</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4088,10 +4087,10 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>0.35</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4111,10 +4110,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>0.3</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4190,27 +4189,27 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="22" t="str">
         <f>E2</f>
         <v>Nomor Peserta</v>
       </c>
-      <c r="F11" s="23" t="str">
+      <c r="F11" s="22" t="str">
         <f t="shared" ref="F11:I11" si="0">F2</f>
         <v>Alternatif</v>
       </c>
-      <c r="G11" s="24" t="str">
+      <c r="G11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>B1</v>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>B2</v>
       </c>
-      <c r="I11" s="24" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>B3</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4223,19 +4222,19 @@
         <f t="shared" si="1"/>
         <v>Didin Abidin</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <f>G3^G$1</f>
         <v>5.0118723362727229</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <f t="shared" ref="H12:I12" si="2">H3^H$1</f>
         <v>3.2259781313604297</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <f t="shared" si="2"/>
         <v>3.2413741249189303</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="24">
         <f>G12*H12*I12</f>
         <v>52.407154508449246</v>
       </c>
@@ -4249,19 +4248,19 @@
         <f t="shared" si="3"/>
         <v>Taufiq Firdaus</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <f t="shared" ref="G13:I13" si="4">G4^G$1</f>
         <v>4.8861751651066871</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <f t="shared" si="4"/>
         <v>3.210002058956924</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <f t="shared" si="4"/>
         <v>3.1040989999950317</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="24">
         <f t="shared" ref="J13:J17" si="5">G13*H13*I13</f>
         <v>48.686651563177065</v>
       </c>
@@ -4275,19 +4274,19 @@
         <f t="shared" si="6"/>
         <v>Anggia Dwi Nugrahman</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <f t="shared" ref="G14:I14" si="7">G5^G$1</f>
         <v>4.9809983247461966</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <f t="shared" si="7"/>
         <v>3.1611650951143981</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <f t="shared" si="7"/>
         <v>3.1315613590282809</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <f t="shared" si="5"/>
         <v>49.30880745610191</v>
       </c>
@@ -4301,19 +4300,19 @@
         <f t="shared" si="8"/>
         <v>Dawud</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <f t="shared" ref="G15:I15" si="9">G6^G$1</f>
         <v>4.9226987771675637</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <f t="shared" si="9"/>
         <v>3.1611650951143981</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <f t="shared" si="9"/>
         <v>3.1315613590282809</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <f t="shared" si="5"/>
         <v>48.731677937296233</v>
       </c>
@@ -4327,19 +4326,19 @@
         <f t="shared" si="10"/>
         <v>Asep Herdiana</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <f t="shared" ref="G16:I16" si="11">G7^G$1</f>
         <v>4.967657158575598</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <f t="shared" si="11"/>
         <v>3.1278122181100327</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <f t="shared" si="11"/>
         <v>3.1686825654598421</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <f t="shared" si="5"/>
         <v>49.234668891936643</v>
       </c>
@@ -4353,19 +4352,19 @@
         <f t="shared" si="12"/>
         <v>Pitri Wahyuni,S.P.,</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <f t="shared" ref="G17:I17" si="13">G8^G$1</f>
         <v>4.9587259482850072</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <f t="shared" si="13"/>
         <v>3.0937854259489401</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <f t="shared" si="13"/>
         <v>3.165219929029373</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <f t="shared" si="5"/>
         <v>48.558379814518432</v>
       </c>
@@ -4374,7 +4373,7 @@
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="25">
         <f>SUM(J12:J17)</f>
         <v>296.92734017147956</v>
       </c>
@@ -4385,127 +4384,127 @@
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="23" t="str">
-        <f>E11</f>
+      <c r="E21" s="22" t="str">
+        <f t="shared" ref="E21:F27" si="14">E11</f>
         <v>Nomor Peserta</v>
       </c>
-      <c r="F21" s="23" t="str">
-        <f>F11</f>
+      <c r="F21" s="22" t="str">
+        <f t="shared" si="14"/>
         <v>Alternatif</v>
       </c>
-      <c r="G21" s="24" t="str">
+      <c r="G21" s="23" t="str">
         <f>J11</f>
         <v>S</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="str">
-        <f>E12</f>
+        <f t="shared" si="14"/>
         <v>KABCMS0001</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>F12</f>
+        <f t="shared" si="14"/>
         <v>Didin Abidin</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="24">
         <f>J12/$J$18</f>
         <v>0.17649824525482702</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <f>RANK(G22,$G$22:$G$27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="str">
-        <f>E13</f>
+        <f t="shared" si="14"/>
         <v>KABCMS0002</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>F13</f>
+        <f t="shared" si="14"/>
         <v>Taufiq Firdaus</v>
       </c>
-      <c r="G23" s="25">
-        <f t="shared" ref="G23:G27" si="14">J13/$J$18</f>
+      <c r="G23" s="24">
+        <f t="shared" ref="G23:G27" si="15">J13/$J$18</f>
         <v>0.16396823389540305</v>
       </c>
-      <c r="H23" s="27">
-        <f t="shared" ref="H23:H27" si="15">RANK(G23,$G$22:$G$27)</f>
+      <c r="H23" s="26">
+        <f t="shared" ref="H23:H27" si="16">RANK(G23,$G$22:$G$27)</f>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="str">
-        <f>E14</f>
+        <f t="shared" si="14"/>
         <v>KABCMS0003</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>F14</f>
+        <f t="shared" si="14"/>
         <v>Anggia Dwi Nugrahman</v>
       </c>
-      <c r="G24" s="25">
-        <f t="shared" si="14"/>
+      <c r="G24" s="24">
+        <f t="shared" si="15"/>
         <v>0.16606354749153582</v>
       </c>
-      <c r="H24" s="27">
-        <f t="shared" si="15"/>
+      <c r="H24" s="26">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="str">
-        <f>E15</f>
+        <f t="shared" si="14"/>
         <v>KABCMS0004</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>F15</f>
+        <f t="shared" si="14"/>
         <v>Dawud</v>
       </c>
-      <c r="G25" s="25">
-        <f t="shared" si="14"/>
+      <c r="G25" s="24">
+        <f t="shared" si="15"/>
         <v>0.16411987494702587</v>
       </c>
-      <c r="H25" s="27">
-        <f t="shared" si="15"/>
+      <c r="H25" s="26">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="str">
-        <f>E16</f>
+        <f t="shared" si="14"/>
         <v>KABCMS0005</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>F16</f>
+        <f t="shared" si="14"/>
         <v>Asep Herdiana</v>
       </c>
-      <c r="G26" s="25">
-        <f t="shared" si="14"/>
+      <c r="G26" s="24">
+        <f t="shared" si="15"/>
         <v>0.16581386161174297</v>
       </c>
-      <c r="H26" s="27">
-        <f t="shared" si="15"/>
+      <c r="H26" s="26">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="str">
-        <f>E17</f>
+        <f t="shared" si="14"/>
         <v>KABCMS0006</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>F17</f>
+        <f t="shared" si="14"/>
         <v>Pitri Wahyuni,S.P.,</v>
       </c>
-      <c r="G27" s="25">
-        <f t="shared" si="14"/>
+      <c r="G27" s="24">
+        <f t="shared" si="15"/>
         <v>0.16353623679946519</v>
       </c>
-      <c r="H27" s="27">
-        <f t="shared" si="15"/>
+      <c r="H27" s="26">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
     </row>
